--- a/data-raw/geo_ref_example.xlsx
+++ b/data-raw/geo_ref_example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickbarks/geomatch/data-raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickbarks/hmatch/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373AB1D6-B8DE-8E42-A2C7-2E4B90A23417}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6A9265-5450-944F-97CC-93E0988F5B47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="21300" windowHeight="17000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21180" yWindow="7980" windowWidth="21300" windowHeight="17000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,105 +20,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="17">
   <si>
     <t>level</t>
   </si>
   <si>
-    <t>pcode</t>
-  </si>
-  <si>
-    <t>Nord-Kivu</t>
-  </si>
-  <si>
-    <t>nord_kivu</t>
-  </si>
-  <si>
-    <t>Butembo</t>
-  </si>
-  <si>
-    <t>nord_kivu__butembo</t>
-  </si>
-  <si>
-    <t>Katwa</t>
-  </si>
-  <si>
-    <t>nord_kivu__katwa</t>
-  </si>
-  <si>
-    <t>Katsya</t>
-  </si>
-  <si>
-    <t>nord_kivu__butembo__katsya</t>
-  </si>
-  <si>
-    <t>Matanda</t>
-  </si>
-  <si>
-    <t>nord_kivu__butembo__matanda</t>
-  </si>
-  <si>
-    <t>Makerere</t>
-  </si>
-  <si>
-    <t>nord_kivu__katwa__makerere</t>
-  </si>
-  <si>
-    <t>Kahute</t>
-  </si>
-  <si>
-    <t>nord_kivu__butembo__katsya__kahute</t>
-  </si>
-  <si>
-    <t>nord_kivu__butembo__katsya__katsya</t>
-  </si>
-  <si>
-    <t>Musavu</t>
-  </si>
-  <si>
-    <t>nord_kivu__butembo__katsya__musavu</t>
-  </si>
-  <si>
-    <t>Vutetse</t>
-  </si>
-  <si>
-    <t>nord_kivu__butembo__katsya__vutetse</t>
-  </si>
-  <si>
-    <t>Kasongomi</t>
-  </si>
-  <si>
-    <t>nord_kivu__butembo__matanda__kasongomi</t>
-  </si>
-  <si>
-    <t>Ngule</t>
-  </si>
-  <si>
-    <t>nord_kivu__butembo__matanda__ngule</t>
-  </si>
-  <si>
-    <t>nord_kivu__butembo__matanda__vutetse</t>
-  </si>
-  <si>
-    <t>nord_kivu__katwa__makerere__makerere</t>
-  </si>
-  <si>
-    <t>Wayene</t>
-  </si>
-  <si>
-    <t>nord_kivu__katwa__makerere__wayene</t>
-  </si>
-  <si>
     <t>adm1</t>
   </si>
   <si>
     <t>adm2</t>
   </si>
   <si>
-    <t>adm3</t>
-  </si>
-  <si>
-    <t>adm4</t>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Kings</t>
+  </si>
+  <si>
+    <t>Suffolk</t>
+  </si>
+  <si>
+    <t>Jefferson</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>Bergen</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>Philadelphia</t>
+  </si>
+  <si>
+    <t>York</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Ontario</t>
+  </si>
+  <si>
+    <t>Toronto</t>
+  </si>
+  <si>
+    <t>adm0</t>
   </si>
 </sst>
 </file>
@@ -162,13 +114,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -508,307 +475,226 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="B4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>2</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>2</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F4" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>2</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>2</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" t="s">
+      <c r="D13" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>2</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F6" t="s">
+      <c r="D14" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>2</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>2</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>4</v>
-      </c>
-      <c r="B15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/geo_ref_example.xlsx
+++ b/data-raw/geo_ref_example.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrickbarks/hmatch/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6A9265-5450-944F-97CC-93E0988F5B47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADF5111-0641-5245-BF2B-24CF95C08962}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21180" yWindow="7980" windowWidth="21300" windowHeight="17000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="17">
   <si>
     <t>level</t>
   </si>
@@ -475,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -543,7 +543,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D5" s="7"/>
     </row>
@@ -555,7 +555,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D6" s="7"/>
     </row>
@@ -599,7 +599,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -607,13 +607,13 @@
         <v>3</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>2</v>
       </c>
@@ -624,7 +624,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -638,7 +638,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -649,10 +649,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -663,10 +663,10 @@
         <v>3</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -694,6 +694,20 @@
         <v>10</v>
       </c>
       <c r="D16" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>2</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>12</v>
       </c>
     </row>
